--- a/data/case1/2/Qlm1_3.xlsx
+++ b/data/case1/2/Qlm1_3.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.11740040483842051</v>
+        <v>-0.11767664784914444</v>
       </c>
       <c r="B1" s="0">
-        <v>0.11696717495618714</v>
+        <v>0.11725705189250135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.094865368942409489</v>
+        <v>-0.078550708444662831</v>
       </c>
       <c r="B2" s="0">
-        <v>0.093084345402685287</v>
+        <v>0.077160555320958224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.095827557094239069</v>
+        <v>-0.027446623346666144</v>
       </c>
       <c r="B3" s="0">
-        <v>0.095466255051686488</v>
+        <v>0.027049036983433083</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.087466255142706117</v>
+        <v>-0.019049037106011468</v>
       </c>
       <c r="B4" s="0">
-        <v>0.087150098387819952</v>
+        <v>0.018691865942484398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.084150098435960885</v>
+        <v>-0.015691865995913545</v>
       </c>
       <c r="B5" s="0">
-        <v>0.083088297166085567</v>
+        <v>0.014478376903874768</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.038000413235366182</v>
+        <v>0.000526950290701933</v>
       </c>
       <c r="B6" s="0">
-        <v>0.03753395438129381</v>
+        <v>-0.00072905156864955245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.027533954509896041</v>
+        <v>0.010729051420158786</v>
       </c>
       <c r="B7" s="0">
-        <v>0.027423646726972173</v>
+        <v>-0.010769406998908604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.017423646858798936</v>
+        <v>0.020769406852954031</v>
       </c>
       <c r="B8" s="0">
-        <v>0.01723540047506722</v>
+        <v>-0.020834907970484817</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.015235400533235577</v>
+        <v>0.022834907943074523</v>
       </c>
       <c r="B9" s="0">
-        <v>0.015084168924440089</v>
+        <v>-0.022888706809638393</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.013084168985209033</v>
+        <v>0.024888706789756299</v>
       </c>
       <c r="B10" s="0">
-        <v>0.013076359807902449</v>
+        <v>-0.024888822699255186</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.010076359878564922</v>
+        <v>0.027888822666127133</v>
       </c>
       <c r="B11" s="0">
-        <v>0.010061808982328557</v>
+        <v>-0.02789494151234706</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0065618090583088318</v>
+        <v>-0.004677902604028894</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0064559551844047824</v>
+        <v>0.004676070010806832</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0029559552618474427</v>
+        <v>-0.001176070048936495</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0029124954598671593</v>
+        <v>0.0011748179321440233</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.005087504419461375</v>
+        <v>0.0068251819676712344</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0050989547121211842</v>
+        <v>-0.0068367804164015666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0060989546590670685</v>
+        <v>0.0078367804150039078</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0061048611702467781</v>
+        <v>-0.0078587967137506709</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060351645216956129</v>
+        <v>-0.0040458542640600115</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060032626490573726</v>
+        <v>0.0036645348787889276</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040032627121542319</v>
+        <v>-0.0016645348932300408</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999173847556</v>
+        <v>0.0015112604061275903</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016101806072562397</v>
+        <v>-0.032706343533046578</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091071990850025</v>
+        <v>0.032658008500366265</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091072030794958</v>
+        <v>-0.028658008558448245</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016072105403897</v>
+        <v>0.02829780326414788</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080160721481981057</v>
+        <v>-0.0080157681977031103</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056141359285959</v>
+        <v>0.0080056753737487441</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056141791513511</v>
+        <v>-0.0040056754433557273</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999564832578</v>
+        <v>0.003999999929812148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0067432116442294188</v>
+        <v>-0.045713932039880945</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.0072798533307389945</v>
+        <v>0.045500770971964144</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040503730539375837</v>
+        <v>-0.040500771056323437</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099841735289132</v>
+        <v>0.040099116392262601</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099841940862895</v>
+        <v>-0.020099116693923946</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999791576961</v>
+        <v>0.019999999694007009</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.043087883981645092</v>
+        <v>-0.097244879941269957</v>
       </c>
       <c r="B25" s="0">
-        <v>0.043075767444218371</v>
+        <v>0.097123205860164319</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.04057576750101255</v>
+        <v>-0.094623205909698527</v>
       </c>
       <c r="B26" s="0">
-        <v>0.040560429024010247</v>
+        <v>0.094464521519245892</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.038060429082363179</v>
+        <v>-0.091964521575181646</v>
       </c>
       <c r="B27" s="0">
-        <v>0.037966595543549086</v>
+        <v>0.091011683846474511</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.035966595604092433</v>
+        <v>-0.08901168392335812</v>
       </c>
       <c r="B28" s="0">
-        <v>0.035906041035254077</v>
+        <v>0.088359714789656429</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081349907731206983</v>
+        <v>-0.081359714955101303</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081167309657819153</v>
+        <v>0.081171558057771875</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021167310285398422</v>
+        <v>-0.021171558971172288</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021021776356267008</v>
+        <v>0.021021417429853528</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014021776479955506</v>
+        <v>-0.014021417609539455</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000929685993313</v>
+        <v>0.014000623002409895</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040009298390799586</v>
+        <v>-0.004000623224566624</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999042841239</v>
+        <v>0.0039999998614757004</v>
       </c>
     </row>
   </sheetData>
